--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4290299.26380148</v>
+        <v>4288419.084031152</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7238406.202617426</v>
+        <v>7238406.202617425</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>99.3780331825938</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.80100608808073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.90925090849413</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>105.0839683962668</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>107.2625634017004</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>249.4237682275164</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>358.5239983301238</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>139.6528551206844</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417097</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,10 +1585,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>52.26593503209662</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002182</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>17.78458198347545</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>29.9567468978484</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>70.41761368552137</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S19" t="n">
         <v>186.8801586578918</v>
@@ -2065,7 +2065,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>29.95674689784825</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>70.41761368552115</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S22" t="n">
         <v>186.8801586578918</v>
@@ -2302,7 +2302,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>70.41761368552099</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>210.5069097326778</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>183.9479879391037</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
@@ -2539,10 +2539,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
@@ -2773,13 +2773,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633258</v>
+        <v>32.1726055460462</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.41761368552048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>99.3785941385606</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808141</v>
+        <v>77.54261572246298</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T31" t="n">
-        <v>190.8452967432827</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2423.485734520778</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>2054.523217580367</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1696.257518973616</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1310.469266375372</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>899.4833615857644</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>481.5195534839513</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>154.3248335199542</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2423.485734520778</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4407,19 +4407,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2255.520561484594</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>1886.558044544182</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>1528.292345937431</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>1142.504093339187</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>731.5181885495797</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>313.5543804477666</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548716</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>257.3478788207</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>257.3478788207</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.5492509541</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406938</v>
+        <v>555.4725825998846</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>555.4725825998846</v>
       </c>
       <c r="F8" t="n">
-        <v>786.5468780190865</v>
+        <v>548.5270818506812</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>534.6036777892721</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533136</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733119</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224066</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473038</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.483574129468</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.483574129468</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782184</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782184</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036442</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>659.373105721172</v>
+        <v>943.017270764214</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011336</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.104817265284</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O12" t="n">
-        <v>2050.644882483981</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028574</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028574</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028574</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028574</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>622.2132292685493</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5279,13 +5279,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
         <v>2612.943493278838</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441653</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,22 +5498,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5537,10 +5537,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3459941729338</v>
+        <v>285.2604416327756</v>
       </c>
       <c r="C19" t="n">
-        <v>168.3459941729338</v>
+        <v>127.4764317611428</v>
       </c>
       <c r="D19" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
         <v>281.6456777937158</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O19" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875144</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449761</v>
+        <v>807.0577537630746</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953634</v>
+        <v>563.5254386134619</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146769</v>
+        <v>285.2604416327756</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729338</v>
+        <v>285.2604416327756</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3459941729338</v>
+        <v>285.2604416327756</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,16 +5768,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729334</v>
+        <v>285.2604416327754</v>
       </c>
       <c r="C22" t="n">
-        <v>168.3459941729334</v>
+        <v>127.4764317611427</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3459941729334</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>168.3459941729334</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>168.3459941729334</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
         <v>281.6456777937158</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969363</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5926,34 +5926,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q22" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449757</v>
+        <v>807.0577537630746</v>
       </c>
       <c r="V22" t="n">
-        <v>663.448368995363</v>
+        <v>563.5254386134619</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146766</v>
+        <v>285.2604416327754</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729334</v>
+        <v>285.2604416327754</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729334</v>
+        <v>285.2604416327754</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926332</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>846.912770472595</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6154,7 +6154,7 @@
         <v>540.2879676172995</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036939</v>
@@ -6175,22 +6175,22 @@
         <v>1397.590392029364</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875144</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449761</v>
+        <v>999.1511014518064</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953634</v>
+        <v>755.6187863021937</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146769</v>
+        <v>477.3537893215073</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729338</v>
+        <v>477.3537893215073</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3459941729338</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6230,46 +6230,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>531.0278572538201</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>373.2438473821874</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>373.2438473821874</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937156</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969363</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q28" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449753</v>
+        <v>807.0577537630755</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953624</v>
+        <v>563.5254386134627</v>
       </c>
       <c r="W28" t="n">
-        <v>385.183372014676</v>
+        <v>563.5254386134627</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729328</v>
+        <v>531.0278572538201</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>531.0278572538201</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,16 +6458,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.8884938017521</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C31" t="n">
-        <v>493.8884938017521</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D31" t="n">
-        <v>493.8884938017521</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E31" t="n">
-        <v>493.8884938017521</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F31" t="n">
-        <v>493.8884938017521</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G31" t="n">
-        <v>336.8653451778467</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5300287366499</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
@@ -6637,34 +6637,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1486.435298675636</v>
+        <v>1508.032354590403</v>
       </c>
       <c r="S31" t="n">
-        <v>1486.435298675636</v>
+        <v>1319.264517562229</v>
       </c>
       <c r="T31" t="n">
-        <v>1293.662271662219</v>
+        <v>1106.631275408009</v>
       </c>
       <c r="U31" t="n">
-        <v>1015.685805932051</v>
+        <v>828.6548096778409</v>
       </c>
       <c r="V31" t="n">
-        <v>772.1534907824386</v>
+        <v>585.1224945282282</v>
       </c>
       <c r="W31" t="n">
-        <v>493.8884938017521</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="X31" t="n">
-        <v>493.8884938017521</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="Y31" t="n">
-        <v>493.8884938017521</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,31 +6856,31 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083204</v>
@@ -7324,7 +7324,7 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7360,22 +7360,22 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,49 +7394,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7649,10 +7649,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>167.8887746690279</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7786,7 +7786,7 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083206</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7831,7 +7831,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7840,13 +7840,13 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>199.0269485415611</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,28 +8769,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>22.04402060665569</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>73.53204524670059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>113.6026921294542</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,22 +9486,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>230.7151863772035</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359301</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714798</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,13 +9963,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>188.8856946302397</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>73.53204524670082</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>403.7628319612157</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>29.47535963978223</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>234.2570633044944</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338501</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>207.9250734055617</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>137.5748216925009</v>
+        <v>107.6180747946525</v>
       </c>
       <c r="E19" t="n">
         <v>135.3933113208577</v>
@@ -23902,13 +23902,13 @@
         <v>134.3803966972198</v>
       </c>
       <c r="G19" t="n">
-        <v>85.03530345214472</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263833</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>107.6180747946527</v>
       </c>
       <c r="E22" t="n">
         <v>135.3933113208577</v>
@@ -24139,13 +24139,13 @@
         <v>134.3803966972198</v>
       </c>
       <c r="G22" t="n">
-        <v>85.03530345214499</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263833</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>156.2061697729164</v>
@@ -24373,16 +24373,16 @@
         <v>135.3933113208577</v>
       </c>
       <c r="F25" t="n">
-        <v>63.96278301169881</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808135</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>91.24871313376227</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>182.4963985172795</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.1263883408629</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.3810853556184</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>19.66161298939515</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607930.4035028582</v>
+        <v>607930.4035028581</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>612668.3267851268</v>
+        <v>612668.3267851267</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>612668.3267851266</v>
+        <v>612668.3267851267</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
-        <v>788375.3505184433</v>
+        <v>788375.3505184436</v>
       </c>
       <c r="H2" t="n">
-        <v>788375.3505184432</v>
+        <v>788375.3505184434</v>
       </c>
       <c r="I2" t="n">
-        <v>788375.3505184432</v>
+        <v>788375.3505184435</v>
       </c>
       <c r="J2" t="n">
-        <v>788375.3505184434</v>
+        <v>788375.3505184435</v>
       </c>
       <c r="K2" t="n">
-        <v>788375.3505184434</v>
+        <v>788375.3505184435</v>
       </c>
       <c r="L2" t="n">
         <v>821041.7698642843</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642844</v>
+        <v>821041.7698642843</v>
       </c>
       <c r="N2" t="n">
+        <v>821041.7698642843</v>
+      </c>
+      <c r="O2" t="n">
         <v>821041.7698642842</v>
       </c>
-      <c r="O2" t="n">
-        <v>821041.7698642843</v>
-      </c>
       <c r="P2" t="n">
-        <v>821041.7698642843</v>
+        <v>821041.7698642845</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569112</v>
+        <v>8832.52106056913</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865245</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687079</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>25807.53208971</v>
+        <v>25807.53208971002</v>
       </c>
       <c r="H4" t="n">
-        <v>25807.53208971004</v>
+        <v>25807.53208971003</v>
       </c>
       <c r="I4" t="n">
-        <v>25807.53208971003</v>
+        <v>25807.53208971002</v>
       </c>
       <c r="J4" t="n">
-        <v>25807.53208971</v>
+        <v>25807.53208971005</v>
       </c>
       <c r="K4" t="n">
-        <v>25807.53208971</v>
+        <v>25807.53208971007</v>
       </c>
       <c r="L4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26473,40 +26473,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="I5" t="n">
         <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501784</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26522,46 +26522,46 @@
         <v>-17418.05520019503</v>
       </c>
       <c r="C6" t="n">
-        <v>572549.8240143495</v>
+        <v>572549.8240143493</v>
       </c>
       <c r="D6" t="n">
-        <v>572549.8240143495</v>
+        <v>572549.8240143498</v>
       </c>
       <c r="E6" t="n">
-        <v>142736.1494629345</v>
+        <v>142638.6903369616</v>
       </c>
       <c r="F6" t="n">
-        <v>667896.1859398303</v>
+        <v>667798.7268138584</v>
       </c>
       <c r="G6" t="n">
-        <v>660819.7949031463</v>
+        <v>660738.1288547821</v>
       </c>
       <c r="H6" t="n">
-        <v>669652.3159637153</v>
+        <v>669570.649915351</v>
       </c>
       <c r="I6" t="n">
-        <v>669652.3159637153</v>
+        <v>669570.649915351</v>
       </c>
       <c r="J6" t="n">
-        <v>493229.0967711227</v>
+        <v>493147.4307227582</v>
       </c>
       <c r="K6" t="n">
-        <v>669652.3159637155</v>
+        <v>669570.6499153511</v>
       </c>
       <c r="L6" t="n">
         <v>624227.7571123551</v>
       </c>
       <c r="M6" t="n">
-        <v>543932.2539822308</v>
+        <v>543932.2539822304</v>
       </c>
       <c r="N6" t="n">
-        <v>678733.2692160676</v>
+        <v>678733.2692160677</v>
       </c>
       <c r="O6" t="n">
-        <v>678733.2692160676</v>
+        <v>678733.2692160675</v>
       </c>
       <c r="P6" t="n">
-        <v>678733.2692160677</v>
+        <v>678733.269216068</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,10 +26756,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.55328306226745</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>171.2340993700035</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>218.8388043680903</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>117.7725420563839</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361562</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>164.3604017932786</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>11.20710234834519</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>146.6290191212933</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,10 +28096,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28330,10 +28330,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,13 +34784,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751884</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>271.30172556268</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>280.6254601782252</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>446.797265527467</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>10.73738595686864</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556558</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35817,10 +35817,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187475</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K19" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L19" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M19" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N19" t="n">
         <v>284.317529131315</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>541.1395634276697</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K22" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L22" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P22" t="n">
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>254.3583680453837</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,10 +36522,10 @@
         <v>261.25483820564</v>
       </c>
       <c r="M25" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O25" t="n">
         <v>247.2780028463143</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109096</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>471.2493968713479</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127692</v>
+        <v>23.54842149127696</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M28" t="n">
         <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O28" t="n">
         <v>247.2780028463143</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758615</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>510.1640057735818</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.5484214912769</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K31" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
         <v>261.2548382056399</v>
@@ -37005,10 +37005,10 @@
         <v>247.2780028463142</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758613</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,19 +37394,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>481.9867828282178</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>322.7897502027251</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,7 +37865,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>714.1872090116819</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>71.38553859468888</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
